--- a/public/test_data/user_data.xlsx
+++ b/public/test_data/user_data.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>active</t>
   </si>
@@ -48,6 +42,9 @@
   </si>
   <si>
     <t>flat_number</t>
+  </si>
+  <si>
+    <t>full_name</t>
   </si>
 </sst>
 </file>
@@ -386,35 +383,32 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1"/>
     </row>
